--- a/data/trans_bre/P32C-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P32C-Clase-trans_bre.xlsx
@@ -649,7 +649,7 @@
         <v>-1</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>1.712803329516112</v>
+        <v>1.712803329516111</v>
       </c>
     </row>
     <row r="5">
@@ -660,16 +660,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.958052102316592</v>
+        <v>-1.913703296067781</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-5.03653228950223</v>
+        <v>-5.762861233679859</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.740747827850543</v>
+        <v>-2.131729603913676</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.2915036614468931</v>
+        <v>-0.3999307601882839</v>
       </c>
       <c r="G5" s="6" t="inlineStr"/>
       <c r="H5" s="6" t="inlineStr"/>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.458765736246726</v>
+        <v>2.263024711201143</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.9798070773468521</v>
+        <v>-1.209655693639286</v>
       </c>
       <c r="E6" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.680265608430209</v>
+        <v>2.108955935611642</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="inlineStr"/>
@@ -744,16 +744,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.516765241213229</v>
+        <v>-2.474935699272975</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-5.715177602130445</v>
+        <v>-5.230467971455734</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-4.631729327755194</v>
+        <v>-4.079600358852136</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-3.264455735019371</v>
+        <v>-2.960643510675107</v>
       </c>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="inlineStr"/>
@@ -768,16 +768,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.359038080294055</v>
+        <v>1.363581410484227</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-0.4257149047059257</v>
+        <v>-0.4349118678499659</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-0.4548359241190079</v>
+        <v>-0.4338735475319198</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-0.3093723871794163</v>
+        <v>0</v>
       </c>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="inlineStr"/>
@@ -828,16 +828,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.109090051147766</v>
+        <v>-3.102161057911459</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.647484928168952</v>
+        <v>-2.654939476616706</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.602078004016858</v>
+        <v>-1.806425140734469</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.933875613522518</v>
+        <v>-2.703590898596271</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="inlineStr"/>
@@ -852,16 +852,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-0.51876018789092</v>
+        <v>-0.5703139128999352</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.265584919893288</v>
+        <v>-0.3161515988921986</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8.698453912316532</v>
+        <v>7.763344807574703</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-0.3374562261680176</v>
+        <v>-0.3431977956665127</v>
       </c>
       <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="inlineStr"/>
@@ -889,7 +889,7 @@
         <v>-1.242225498304942</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.57726864944081</v>
+        <v>0.5772686494408097</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.7020442335744128</v>
@@ -901,7 +901,7 @@
         <v>-0.637913838910761</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.4688682368184851</v>
+        <v>0.4688682368184848</v>
       </c>
     </row>
     <row r="14">
@@ -912,16 +912,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-3.057008042817784</v>
+        <v>-3.227039138326094</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-2.683135432921821</v>
+        <v>-2.950566469315399</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-2.597281242754409</v>
+        <v>-2.662720909488732</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.969839983456113</v>
+        <v>-0.999458994530941</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>-1</v>
@@ -933,7 +933,7 @@
         <v>-1</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.7822432954920827</v>
+        <v>-0.7735610647169449</v>
       </c>
     </row>
     <row r="15">
@@ -944,28 +944,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.291166844223496</v>
+        <v>0.964443098292209</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.009835016876524019</v>
+        <v>-0.08198374091902226</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2212741659456299</v>
+        <v>0.2628148304439788</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.793152481941541</v>
+        <v>4.212082570904395</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.608405396887314</v>
+        <v>1.078668045242652</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.6504545077557538</v>
+        <v>0.4495724791724707</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6314129774248313</v>
+        <v>0.6287623228064829</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>6.608003068230606</v>
+        <v>6.809209807567512</v>
       </c>
     </row>
     <row r="16">
@@ -1012,16 +1012,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.065575961407699</v>
+        <v>-4.0378532658915</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-4.718056932083011</v>
+        <v>-4.924200490462424</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-4.528990257425261</v>
+        <v>-4.47503558618282</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.892211607706465</v>
+        <v>-3.642868599022862</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>-1</v>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="I17" s="6" t="inlineStr"/>
       <c r="J17" s="6" t="n">
-        <v>-0.888093164482129</v>
+        <v>-0.8876645523511431</v>
       </c>
     </row>
     <row r="18">
@@ -1042,26 +1042,26 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.706866954805559</v>
+        <v>2.981087743007413</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-0.4304061423190368</v>
+        <v>-0.3516559636058875</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-0.979228143251711</v>
+        <v>-0.939961262756425</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.6906634243656236</v>
+        <v>0.9546708386483572</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>3.27047981329101</v>
+        <v>5.107694624836464</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2152010386295739</v>
+        <v>0.6617712194845118</v>
       </c>
       <c r="I18" s="6" t="inlineStr"/>
       <c r="J18" s="6" t="n">
-        <v>0.8631388499594085</v>
+        <v>0.9279036746267578</v>
       </c>
     </row>
     <row r="19">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-2.03083881691545</v>
+        <v>-2.182109127088077</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-4.049947538460804</v>
+        <v>-4.307442982820575</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-2.3892060720784</v>
+        <v>-2.418721312344196</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>1.867143717622675</v>
+        <v>1.874403364417326</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.789109483171261</v>
+        <v>0.7853664052160872</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2.033878130240053</v>
+        <v>1.936873518949979</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>7.988392156035793</v>
+        <v>8.753337851892518</v>
       </c>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
@@ -1171,7 +1171,7 @@
         <v>-1.06674870101983</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>-0.07866660633434661</v>
+        <v>-0.07866660633434643</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>-0.513539191085195</v>
@@ -1183,7 +1183,7 @@
         <v>-0.6592088945764943</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>-0.0649956665440365</v>
+        <v>-0.06499566654403637</v>
       </c>
     </row>
     <row r="23">
@@ -1194,28 +1194,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.830625664210338</v>
+        <v>-1.833188860309487</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.499395932589654</v>
+        <v>-2.522037475537437</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.752792181302419</v>
+        <v>-1.802880503749785</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.8527097024936519</v>
+        <v>-0.8849987660487979</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.7992662939126755</v>
+        <v>-0.8225216504543037</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.9590812097810386</v>
+        <v>-0.9599000291817305</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.8634104010193728</v>
+        <v>-0.8755114736268921</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.5913558547735676</v>
+        <v>-0.6134518938747846</v>
       </c>
     </row>
     <row r="24">
@@ -1226,28 +1226,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.08280214917548512</v>
+        <v>0.03009472236083564</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-1.08024569941081</v>
+        <v>-0.9912653205643102</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-0.3231478109849091</v>
+        <v>-0.4070563823409363</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.057686900870031</v>
+        <v>1.103574691019236</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.1841655727654443</v>
+        <v>0.04417926695713515</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>-0.5693051701726628</v>
+        <v>-0.5121139523733993</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>-0.1700743583597277</v>
+        <v>-0.1696820163672431</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>1.272076773307388</v>
+        <v>1.298015945411028</v>
       </c>
     </row>
     <row r="25">
